--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3317495.160819356</v>
+        <v>3314951.351312274</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.1383913127193</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.20115868761674</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>160.1693433169009</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>42.88451113257957</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113.0305946120671</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>204.2688325015157</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>123.7911484401894</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.636373462449423</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.7818072471471</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.721446701664</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.6128256968461</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>119.9986126802273</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.6123503460141</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>18.47335059662358</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.9062466127719</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>102.6231190621888</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>198.7422597397541</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>132.8121873168108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
-        <v>91.8999605662476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722601</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>154.8443340724369</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.6652257507525</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835745</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.2826908791759</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>814.4829423425513</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836801</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165021</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>758.0498399683654</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>758.0498399683654</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>993.2019482001081</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>993.2019482001081</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U3" t="n">
-        <v>993.2019482001081</v>
+        <v>611.5747118810663</v>
       </c>
       <c r="V3" t="n">
-        <v>758.0498399683654</v>
+        <v>611.5747118810663</v>
       </c>
       <c r="W3" t="n">
-        <v>758.0498399683654</v>
+        <v>357.3373551528646</v>
       </c>
       <c r="X3" t="n">
-        <v>758.0498399683654</v>
+        <v>357.3373551528646</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.0498399683654</v>
+        <v>357.3373551528646</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.4883125408293</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>560.4883125408293</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092336</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092336</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388466</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408293</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.4883125408293</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.4256445709457</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4556,22 +4556,22 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>432.4256445709457</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.4256445709457</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9343181318528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4812888507258</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4812888507258</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507258</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098642</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>906.2192216098642</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>906.2192216098642</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X6" t="n">
-        <v>698.3677214043314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>490.6074226393775</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653.4056950533275</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4695121254205</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4695121254205</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>788.4778634388466</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>788.4778634388466</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.595798031707</v>
+        <v>1708.090165988816</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.633281091295</v>
+        <v>1339.127649048404</v>
       </c>
       <c r="D8" t="n">
-        <v>844.3675824845444</v>
+        <v>980.8619504416538</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3675824845444</v>
+        <v>595.0736978434095</v>
       </c>
       <c r="F8" t="n">
-        <v>837.422081735341</v>
+        <v>588.128197094206</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270081</v>
+        <v>172.4219750858732</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.175743760742</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045929</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2351.810676439058</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081701</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.195638095828</v>
+        <v>1708.090165988816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010795</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199526</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587013</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532458</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801308</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.648070876319</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445527</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507234</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018224</v>
+        <v>298.0857543148181</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353034</v>
+        <v>592.6217377482996</v>
       </c>
       <c r="M9" t="n">
-        <v>1351.191145920142</v>
+        <v>955.688206222601</v>
       </c>
       <c r="N9" t="n">
-        <v>1738.275548392711</v>
+        <v>1564.570720174576</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359412</v>
+        <v>2198.310003359415</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.054243487711</v>
+        <v>349.2409882015845</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598041</v>
+        <v>349.2409882015845</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474684</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650752</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671649</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1310.174753887026</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>1021.056380381668</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.109429252929</v>
+        <v>1021.056380381668</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.692259215968</v>
+        <v>731.6392103447072</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.702708317951</v>
+        <v>731.6392103447072</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>530.8894530318242</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,10 +5309,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,13 +5534,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.562808876161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5735,28 +5735,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6291,37 +6291,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,25 +6701,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2040.65412723258</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415546</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459973</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.0384964438439</v>
       </c>
       <c r="O9" t="n">
-        <v>129.4420656356691</v>
+        <v>304.9014880782321</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-4.93669787616484e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.23897475306318</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
-        <v>73.62417772602124</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>62.56111625485133</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580785</v>
+        <v>390680.0076580793</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.554903942240595e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101753</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555026</v>
+        <v>139261.6527555023</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,19 +26433,19 @@
         <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26454,10 +26454,10 @@
         <v>10557.08828678122</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254530.8568924661</v>
+        <v>-254530.8568924663</v>
       </c>
       <c r="C6" t="n">
-        <v>425557.1236987269</v>
+        <v>425557.1236987268</v>
       </c>
       <c r="D6" t="n">
-        <v>116093.0648885951</v>
+        <v>116093.0648885941</v>
       </c>
       <c r="E6" t="n">
-        <v>106843.089549623</v>
+        <v>106808.3516241886</v>
       </c>
       <c r="F6" t="n">
-        <v>614752.321610317</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="G6" t="n">
-        <v>614752.321610317</v>
+        <v>614717.5836848816</v>
       </c>
       <c r="H6" t="n">
-        <v>614752.3216103172</v>
+        <v>614717.5836848811</v>
       </c>
       <c r="I6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.583684881</v>
       </c>
       <c r="J6" t="n">
-        <v>545753.167191203</v>
+        <v>545718.429265767</v>
       </c>
       <c r="K6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="L6" t="n">
-        <v>519482.0838192993</v>
+        <v>519447.3458938638</v>
       </c>
       <c r="M6" t="n">
-        <v>482034.3459148476</v>
+        <v>481999.6079894124</v>
       </c>
       <c r="N6" t="n">
-        <v>614752.3216103169</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.3216103169</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.321610317</v>
+        <v>614717.5836848818</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.30732615561634e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933041</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.5954503507612</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>127.0885569156065</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>6.363840332966419</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>104.2654242796192</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>35.58487840614521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>47.86881082231233</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>230.8918931804936</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8968101874179</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>47.07268025640749</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.11053348027335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>12.89177718681785</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,16 +27828,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>181.0348615400731</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.6255883100395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164528781</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.776449164532465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>149.5145242616392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>19.84239361234069</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,16 +29332,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.414636683656336e-12</v>
       </c>
     </row>
     <row r="27">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30520,10 +30520,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.701710257764027e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.30732615561634e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943671</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
-        <v>447.1326187913569</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>301.9817606876396</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6709493241814</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>258.3858318060507</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,10 +34860,10 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043499</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816846</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758576</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856953</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>615.0328423757321</v>
       </c>
       <c r="O9" t="n">
-        <v>464.6812676431327</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
-        <v>313.1582113770266</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237831</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>597.3292372408481</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193501</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
